--- a/myapp/files/9_MethodComparePercent/Scenario 300.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 300.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7865</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.42926198108613</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.08695652173913</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>1575</v>
+        <v>11688</v>
       </c>
       <c r="F3" t="n">
-        <v>1.52151862048978</v>
+        <v>2.12399415574503</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,16 +631,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>3.125</v>
+        <v>1.81159420289855</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.36986301369863</v>
       </c>
     </row>
     <row r="4">
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>5011</v>
+        <v>15430</v>
       </c>
       <c r="F4" t="n">
-        <v>4.84084432207893</v>
+        <v>2.80400665838004</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -669,10 +669,10 @@
         <v>1.36986301369863</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.125</v>
+        <v>2.89855072463768</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>3407</v>
+        <v>15653</v>
       </c>
       <c r="F5" t="n">
-        <v>3.29131043810076</v>
+        <v>2.84453118753226</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -707,10 +707,10 @@
         <v>1.36986301369863</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J5" t="n">
-        <v>4.6875</v>
+        <v>3.98550724637681</v>
       </c>
       <c r="K5" t="n">
         <v>3</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>2378</v>
+        <v>10040</v>
       </c>
       <c r="F6" t="n">
-        <v>2.29725160604743</v>
+        <v>1.82451243357975</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J6" t="n">
-        <v>1.5625</v>
+        <v>3.26086956521739</v>
       </c>
       <c r="K6" t="n">
         <v>3</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>11338</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>2.06039063465411</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.81159420289855</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>1445</v>
+        <v>22441</v>
       </c>
       <c r="F8" t="n">
-        <v>1.39593295657634</v>
+        <v>4.0780760480043</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
+        <v>10</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.6231884057971</v>
+      </c>
+      <c r="K8" t="n">
         <v>2</v>
       </c>
-      <c r="J8" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3</v>
-      </c>
       <c r="L8" t="n">
-        <v>4.10958904109589</v>
+        <v>2.73972602739726</v>
       </c>
     </row>
     <row r="9">
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>10697</v>
+        <v>32548</v>
       </c>
       <c r="F9" t="n">
-        <v>10.3337680529392</v>
+        <v>5.91476401276432</v>
       </c>
       <c r="G9" t="n">
         <v>5</v>
@@ -859,10 +859,10 @@
         <v>6.84931506849315</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J9" t="n">
-        <v>6.25</v>
+        <v>6.52173913043478</v>
       </c>
       <c r="K9" t="n">
         <v>5</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>17407</v>
+        <v>43885</v>
       </c>
       <c r="F10" t="n">
-        <v>16.81592039801</v>
+        <v>7.97497292307245</v>
       </c>
       <c r="G10" t="n">
         <v>10</v>
@@ -897,10 +897,10 @@
         <v>13.6986301369863</v>
       </c>
       <c r="I10" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="J10" t="n">
-        <v>9.375</v>
+        <v>7.97101449275362</v>
       </c>
       <c r="K10" t="n">
         <v>7</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>6645</v>
+        <v>20574</v>
       </c>
       <c r="F11" t="n">
-        <v>6.41935951311404</v>
+        <v>3.7387966940707</v>
       </c>
       <c r="G11" t="n">
         <v>2</v>
@@ -935,10 +935,10 @@
         <v>2.73972602739726</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="J11" t="n">
-        <v>6.25</v>
+        <v>6.88405797101449</v>
       </c>
       <c r="K11" t="n">
         <v>3</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>999</v>
+        <v>10326</v>
       </c>
       <c r="F12" t="n">
-        <v>0.965077524996377</v>
+        <v>1.87648559652834</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J12" t="n">
-        <v>1.5625</v>
+        <v>2.17391304347826</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>3507</v>
+        <v>28591</v>
       </c>
       <c r="F13" t="n">
-        <v>3.38791479495725</v>
+        <v>5.19568077574489</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1011,10 +1011,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J13" t="n">
-        <v>3.125</v>
+        <v>4.71014492753623</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>6949</v>
+        <v>60187</v>
       </c>
       <c r="F14" t="n">
-        <v>6.71303675795778</v>
+        <v>10.9374432111419</v>
       </c>
       <c r="G14" t="n">
         <v>9</v>
@@ -1049,10 +1049,10 @@
         <v>12.3287671232877</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="J14" t="n">
-        <v>7.8125</v>
+        <v>7.97101449275362</v>
       </c>
       <c r="K14" t="n">
         <v>11</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>9634</v>
+        <v>46536</v>
       </c>
       <c r="F15" t="n">
-        <v>9.30686373955465</v>
+        <v>8.45672416424973</v>
       </c>
       <c r="G15" t="n">
         <v>17</v>
@@ -1087,10 +1087,10 @@
         <v>23.2876712328767</v>
       </c>
       <c r="I15" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="J15" t="n">
-        <v>12.5</v>
+        <v>10.1449275362319</v>
       </c>
       <c r="K15" t="n">
         <v>8</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>9136</v>
+        <v>30026</v>
       </c>
       <c r="F16" t="n">
-        <v>8.82577404240931</v>
+        <v>5.45645521221769</v>
       </c>
       <c r="G16" t="n">
         <v>5</v>
@@ -1125,10 +1125,10 @@
         <v>6.84931506849315</v>
       </c>
       <c r="I16" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J16" t="n">
-        <v>10.9375</v>
+        <v>6.15942028985507</v>
       </c>
       <c r="K16" t="n">
         <v>7</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>10796</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.96189603913616</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1.08695652173913</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>17181</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>3.12220598818065</v>
       </c>
       <c r="G18" t="n">
         <v>3</v>
@@ -1201,10 +1201,10 @@
         <v>4.10958904109589</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>2.53623188405797</v>
       </c>
       <c r="K18" t="n">
         <v>2</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>26791</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>4.86857695299155</v>
       </c>
       <c r="G19" t="n">
         <v>7</v>
@@ -1239,10 +1239,10 @@
         <v>9.58904109589041</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>3.6231884057971</v>
       </c>
       <c r="K19" t="n">
         <v>3</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>1161</v>
+        <v>28436</v>
       </c>
       <c r="F20" t="n">
-        <v>1.1215765831039</v>
+        <v>5.16751350211891</v>
       </c>
       <c r="G20" t="n">
         <v>5</v>
@@ -1277,10 +1277,10 @@
         <v>6.84931506849315</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="J20" t="n">
-        <v>1.5625</v>
+        <v>6.52173913043478</v>
       </c>
       <c r="K20" t="n">
         <v>1</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>779</v>
+        <v>25380</v>
       </c>
       <c r="F21" t="n">
-        <v>0.75254793991209</v>
+        <v>4.61216390082212</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1315,10 +1315,10 @@
         <v>1.36986301369863</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J21" t="n">
-        <v>4.6875</v>
+        <v>4.34782608695652</v>
       </c>
       <c r="K21" t="n">
         <v>5</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>1800</v>
+        <v>6879</v>
       </c>
       <c r="F22" t="n">
-        <v>1.7388784234169</v>
+        <v>1.25008177595569</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>1.5625</v>
+        <v>1.08695652173913</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>3764</v>
+        <v>10649</v>
       </c>
       <c r="F23" t="n">
-        <v>3.63618799207844</v>
+        <v>1.93518256027797</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>3.125</v>
+        <v>1.44927536231884</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>6726</v>
+        <v>13611</v>
       </c>
       <c r="F24" t="n">
-        <v>6.4976090421678</v>
+        <v>2.47345007305319</v>
       </c>
       <c r="G24" t="n">
         <v>3</v>
@@ -1429,10 +1429,10 @@
         <v>4.10958904109589</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J24" t="n">
-        <v>4.6875</v>
+        <v>1.81159420289855</v>
       </c>
       <c r="K24" t="n">
         <v>2</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>5163</v>
+        <v>16837</v>
       </c>
       <c r="F25" t="n">
-        <v>4.9876829445008</v>
+        <v>3.05969281316557</v>
       </c>
       <c r="G25" t="n">
         <v>4</v>
@@ -1467,10 +1467,10 @@
         <v>5.47945205479452</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J25" t="n">
-        <v>6.25</v>
+        <v>3.6231884057971</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>5332</v>
+        <v>26596</v>
       </c>
       <c r="F26" t="n">
-        <v>5.15094430758827</v>
+        <v>4.8331407055266</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1505,10 +1505,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J26" t="n">
-        <v>4.6875</v>
+        <v>2.89855072463768</v>
       </c>
       <c r="K26" t="n">
         <v>4</v>
